--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A92CE7-CE38-4CFC-AB0B-DE7155098E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F72C6-BD5F-4F6C-AA52-8D45DA5C5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12365,7 +12365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15774,99 +15774,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15875,99 +15875,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -15976,99 +15976,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16704,99 +16704,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16805,99 +16805,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16906,99 +16906,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17634,99 +17634,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17735,99 +17735,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -17836,99 +17836,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18564,99 +18564,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18665,99 +18665,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -18766,99 +18766,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19556,99 +19556,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19657,99 +19657,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -19758,99 +19758,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20486,99 +20486,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20587,99 +20587,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -20688,99 +20688,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21416,99 +21416,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21517,99 +21517,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -21618,99 +21618,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>12.757645457852904</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>11.789922198589501</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>12.482465647039069</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>12.4281099574611</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>10.232200828389118</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>10.37846188290608</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>10.400775215493114</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>9.3401278965633043</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>8.4351890462330701</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>6.0974364715101297</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>5.6239589163774761</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>3.7730885480801524</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.1359121375797603</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.0025537333482588</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.1655162039628344</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>5.6349760019030546</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>6.3002105955446099</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>8.6527464877420819</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>7.8703571028769721</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>7.4820189186163661</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>9.8723346720026868</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>11.807666097615583</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>11.16343473637076</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>15.867972685547969</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22346,99 +22346,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22447,99 +22447,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -22548,99 +22548,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>17.314854279405761</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>15.225820815039819</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>12.531282704972426</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>10.848557152338165</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>10.114043834235247</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>8.0991729630385958</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>7.8853813559322026</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>7.1490912803757398</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>7.3685202675107195</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>7.7930525066367178</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>7.8002522271288539</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>9.1429883729834582</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>9.1469684883602209</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>9.2738899453747194</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>10.44299523305085</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>8.620795895446193</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>8.9303537242189073</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>9.4561577879313869</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>8.2490761244129054</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>8.5442155273636917</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>8.0067525398202992</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>7.2659485399224009</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>7.4470906932816012</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>8.143682356544824</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23276,99 +23276,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23377,99 +23377,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -23478,99 +23478,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>15.798716953541705</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>14.683578390321832</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>15.91443705068412</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>17.745166391816326</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>15.178604189749798</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>12.876972480610165</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>9.2684750959828897</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>8.2505990878404489</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>8.4177755159885592</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>8.2286547579169778</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>8.3241158622999816</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>8.7555238475611326</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>8.0089161019351174</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>7.717787916462675</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>10.574898863665643</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>13.776396905357002</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>14.065294132804246</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>14.319350537246514</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>14.714213197969544</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>15.522479482851914</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>15.309625344636551</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>14.982464763328093</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>14.345947299595455</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>13.231524581926873</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -48507,99 +48507,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48608,99 +48608,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -48709,99 +48709,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49437,99 +49437,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49538,99 +49538,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -49639,99 +49639,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50367,99 +50367,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50468,99 +50468,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -50569,99 +50569,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51297,99 +51297,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51398,99 +51398,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -51499,99 +51499,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52227,99 +52227,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52328,99 +52328,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -52429,99 +52429,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54176,99 +54176,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54277,99 +54277,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -54378,99 +54378,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55106,99 +55106,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55207,99 +55207,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -55308,99 +55308,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>9.8233870025467365</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>8.8424416489421258</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>9.1121999223385206</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>8.9482391693719929</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>7.6741506212918376</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>7.2649233180342572</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>8.008596915929699</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>7.2852997593193765</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>5.9889842228254802</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>4.3291798947721922</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>4.4429275439382065</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>2.7543546400985113</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.2578567390574276</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.4020429866786071</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.2074474770513826</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.0571827213701992</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>4.7881600526139039</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>6.5760873306839818</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>5.9814713981864989</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>5.3122334322176199</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>7.8978677376021507</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>8.5015195902832197</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>8.2609417049143623</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>12.059659241016456</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56036,99 +56036,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56137,99 +56137,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -56238,99 +56238,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>12.986140709554322</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>10.658074570527875</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>9.6490876828287693</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>8.4618745788237693</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>7.5855328756764342</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>6.4793383704308756</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>6.0717436440677961</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>5.6477821114968343</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>5.3053345926077178</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>5.9227199050439054</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>5.5381790812614859</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>6.4000918610884208</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>7.0431657360373698</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>6.7699396601235442</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>7.7278164724576284</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>6.8104287574024926</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>6.4298546814376136</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>6.6193104515519696</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>6.3517886157979362</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>6.6644881113436805</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>6.2452669810598325</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>5.304142434143353</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>5.9576725546252804</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>5.7005776495813762</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56966,99 +56966,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57067,99 +57067,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -57168,99 +57168,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>11.217089037014611</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>10.425340657128501</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>12.572405270040454</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>12.776519802107755</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>11.383953142312349</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>10.044038534875929</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>7.3220953258264814</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>6.2704553067587421</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>6.4816871473111899</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>6.089204520858563</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>6.6592926898399849</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>6.9168638395732955</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>5.6863304323739339</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>6.0198745748408866</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>7.7196761704759194</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>10.056769740910612</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>9.8457058929629717</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>10.59631939756242</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>10.299949238578682</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>11.641859612138935</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>11.788411515370145</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>11.386673220129351</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>10.472541528704681</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>10.188273928083692</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F72C6-BD5F-4F6C-AA52-8D45DA5C5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB544D76-30BB-4F07-A5CC-FB5CF0103CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12366,7 +12366,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15774,99 +15774,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15976,99 +15976,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16704,99 +16704,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16906,99 +16906,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17634,99 +17634,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17836,99 +17836,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18564,99 +18564,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18766,99 +18766,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19556,99 +19556,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19758,99 +19758,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20486,99 +20486,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20688,99 +20688,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21416,99 +21416,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21618,99 +21618,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>2.5515290915705808</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>2.3579844397178999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>2.4964931294078139</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>2.48562199149222</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>2.0464401656778235</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>2.0756923765812161</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>2.0801550430986229</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>1.8680255793126608</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>1.6870378092466141</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>1.2194872943020261</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>1.1247917832754952</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>0.75461770961603047</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>0.6271824275159521</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>0.60051074666965176</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>0.83310324079256692</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>1.126995200380611</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>1.2600421191089219</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>1.7305492975484162</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>1.5740714205753945</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>1.4964037837232733</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>1.9744669344005374</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>2.3615332195231167</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>2.2326869472741522</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>3.1735945371095937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22346,99 +22346,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22548,99 +22548,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>3.4629708558811521</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>3.0451641630079642</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>2.5062565409944852</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>2.169711430467633</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>2.0228087668470494</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>1.6198345926077189</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>1.5770762711864406</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>1.429818256075148</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>1.473704053502144</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>1.5586105013273435</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>1.5600504454257709</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>1.8285976745966916</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>1.829393697672044</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>1.8547779890749438</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>2.0885990466101698</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>1.7241591790892385</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>1.7860707448437816</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>1.8912315575862773</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>1.6498152248825808</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>1.7088431054727384</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>1.6013505079640598</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>1.4531897079844802</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>1.4894181386563201</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>1.6287364713089647</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23276,99 +23276,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23478,99 +23478,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>3.159743390708341</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>2.9367156780643668</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>3.1828874101368236</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>3.5490332783632654</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>3.0357208379499596</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>2.5753944961220334</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>1.8536950191965778</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>1.6501198175680898</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>1.6835551031977116</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>1.6457309515833953</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>1.6648231724599962</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>1.7511047695122264</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>1.6017832203870235</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>1.543557583292535</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>2.114979772733129</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>2.7552793810714005</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>2.8130588265608489</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>2.8638701074493027</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>2.9428426395939091</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>3.1044958965703828</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>3.0619250689273105</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>2.9964929526656188</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>2.8691894599190908</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>2.6463049163853745</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -48507,99 +48507,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48709,99 +48709,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49437,99 +49437,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49639,99 +49639,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50367,99 +50367,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50569,99 +50569,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51297,99 +51297,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51499,99 +51499,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52227,99 +52227,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52429,99 +52429,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54176,99 +54176,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54378,99 +54378,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55106,99 +55106,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55308,99 +55308,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>1.9646774005093472</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>1.7684883297884251</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>1.8224399844677042</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>1.7896478338743984</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>1.5348301242583675</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>1.4529846636068513</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>1.6017193831859398</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>1.4570599518638752</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>1.1977968445650959</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>0.86583597895443842</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>0.88858550878764131</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>0.55087092801970228</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>0.4515713478114855</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>0.48040859733572139</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>0.64148949541027656</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>0.81143654427403988</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>0.9576320105227808</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>1.3152174661367964</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>1.1962942796372997</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>1.0624466864435238</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>1.57957354752043</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>1.7003039180566439</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>1.6521883409828724</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>2.4119318482032917</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56036,99 +56036,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56238,99 +56238,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>2.5972281419108647</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>2.1316149141055747</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>1.9298175365657539</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>1.6923749157647539</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>1.517106575135287</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>1.2958676740861752</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>1.2143487288135593</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>1.1295564222993668</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>1.0610669185215436</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>1.1845439810087812</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>1.1076358162522972</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>1.2800183722176841</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>1.408633147207474</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>1.353987932024709</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>1.5455632944915256</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>1.3620857514804985</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>1.2859709362875227</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>1.3238620903103939</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>1.2703577231595873</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>1.3328976222687361</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>1.2490533962119665</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>1.0608284868286706</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>1.1915345109250561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>1.1401155299162751</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56966,99 +56966,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57168,99 +57168,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>2.2434178074029223</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>2.0850681314257002</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>2.5144810540080909</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>2.5553039604215511</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>2.2767906284624697</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>2.008807706975186</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>1.4644190651652964</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>1.2540910613517484</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>1.2963374294622378</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>1.2178409041717124</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>1.331858537967997</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>1.383372767914659</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>1.1372660864747868</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>1.2039749149681773</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>1.543935234095184</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>2.0113539481821223</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>1.9691411785925945</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>2.1192638795124843</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>2.0599898477157366</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>2.3283719224277872</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>2.357682303074029</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>2.2773346440258702</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>2.0945083057409364</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>2.0376547856167386</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB544D76-30BB-4F07-A5CC-FB5CF0103CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD2031-7619-49D6-B59E-A008E6492964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12366,7 +12366,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15774,99 +15774,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15976,99 +15976,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16704,99 +16704,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16906,99 +16906,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17634,99 +17634,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17836,99 +17836,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18564,99 +18564,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18766,99 +18766,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19556,99 +19556,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19758,99 +19758,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20486,99 +20486,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20688,99 +20688,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21416,99 +21416,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21618,99 +21618,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>2.5515290915705808</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>2.3579844397178999</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>2.4964931294078139</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>2.48562199149222</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>2.0464401656778235</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>2.0756923765812161</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>2.0801550430986229</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>1.8680255793126608</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>1.6870378092466141</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>1.2194872943020261</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>1.1247917832754952</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.75461770961603047</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.6271824275159521</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.60051074666965176</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.83310324079256692</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>1.126995200380611</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>1.2600421191089219</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>1.7305492975484162</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>1.5740714205753945</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>1.4964037837232733</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>1.9744669344005374</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>2.3615332195231167</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>2.2326869472741522</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>3.1735945371095937</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22346,99 +22346,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22548,99 +22548,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>3.4629708558811521</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>3.0451641630079642</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>2.5062565409944852</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>2.169711430467633</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>2.0228087668470494</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>1.6198345926077189</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>1.5770762711864406</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>1.429818256075148</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>1.473704053502144</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>1.5586105013273435</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>1.5600504454257709</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>1.8285976745966916</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>1.829393697672044</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>1.8547779890749438</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>2.0885990466101698</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>1.7241591790892385</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>1.7860707448437816</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>1.8912315575862773</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>1.6498152248825808</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>1.7088431054727384</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>1.6013505079640598</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>1.4531897079844802</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>1.4894181386563201</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>1.6287364713089647</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23276,99 +23276,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23478,99 +23478,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>3.159743390708341</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>2.9367156780643668</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>3.1828874101368236</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>3.5490332783632654</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>3.0357208379499596</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>2.5753944961220334</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>1.8536950191965778</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>1.6501198175680898</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>1.6835551031977116</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>1.6457309515833953</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>1.6648231724599962</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>1.7511047695122264</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>1.6017832203870235</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>1.543557583292535</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>2.114979772733129</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>2.7552793810714005</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>2.8130588265608489</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>2.8638701074493027</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>2.9428426395939091</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>3.1044958965703828</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>3.0619250689273105</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>2.9964929526656188</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>2.8691894599190908</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>2.6463049163853745</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -48507,99 +48507,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48709,99 +48709,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49437,99 +49437,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49639,99 +49639,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50367,99 +50367,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50569,99 +50569,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51297,99 +51297,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51499,99 +51499,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52227,99 +52227,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52429,99 +52429,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54176,99 +54176,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54378,99 +54378,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55106,99 +55106,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55308,99 +55308,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>1.9646774005093472</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>1.7684883297884251</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>1.8224399844677042</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>1.7896478338743984</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>1.5348301242583675</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>1.4529846636068513</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>1.6017193831859398</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>1.4570599518638752</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>1.1977968445650959</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.86583597895443842</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.88858550878764131</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.55087092801970228</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.4515713478114855</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.48040859733572139</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.64148949541027656</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.81143654427403988</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.9576320105227808</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>1.3152174661367964</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>1.1962942796372997</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>1.0624466864435238</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>1.57957354752043</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>1.7003039180566439</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>1.6521883409828724</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>2.4119318482032917</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56036,99 +56036,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56238,99 +56238,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>2.5972281419108647</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>2.1316149141055747</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>1.9298175365657539</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>1.6923749157647539</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>1.517106575135287</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>1.2958676740861752</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>1.2143487288135593</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>1.1295564222993668</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>1.0610669185215436</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>1.1845439810087812</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>1.1076358162522972</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>1.2800183722176841</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>1.408633147207474</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>1.353987932024709</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>1.5455632944915256</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>1.3620857514804985</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>1.2859709362875227</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>1.3238620903103939</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>1.2703577231595873</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>1.3328976222687361</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>1.2490533962119665</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>1.0608284868286706</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>1.1915345109250561</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>1.1401155299162751</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56966,99 +56966,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57168,99 +57168,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>2.2434178074029223</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>2.0850681314257002</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>2.5144810540080909</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>2.5553039604215511</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>2.2767906284624697</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>2.008807706975186</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>1.4644190651652964</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>1.2540910613517484</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>1.2963374294622378</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>1.2178409041717124</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>1.331858537967997</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>1.383372767914659</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>1.1372660864747868</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>1.2039749149681773</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>1.543935234095184</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>2.0113539481821223</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>1.9691411785925945</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>2.1192638795124843</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>2.0599898477157366</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>2.3283719224277872</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>2.357682303074029</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>2.2773346440258702</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>2.0945083057409364</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>2.0376547856167386</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD2031-7619-49D6-B59E-A008E6492964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17215E1F-4499-467D-ADDF-6B5BD6B35E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15774,99 +15774,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15875,99 +15875,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -15976,99 +15976,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16704,99 +16704,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16805,99 +16805,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16906,99 +16906,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17634,99 +17634,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17735,99 +17735,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -17836,99 +17836,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18564,99 +18564,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18665,99 +18665,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -18766,99 +18766,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19556,99 +19556,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19657,99 +19657,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -19758,99 +19758,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20486,99 +20486,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20587,99 +20587,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -20688,99 +20688,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21416,99 +21416,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21517,99 +21517,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -21618,99 +21618,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22346,99 +22346,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22447,99 +22447,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -22548,99 +22548,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23276,99 +23276,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23377,99 +23377,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -23478,99 +23478,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -48507,99 +48507,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48608,99 +48608,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -48709,99 +48709,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49437,99 +49437,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49538,99 +49538,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -49639,99 +49639,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50367,99 +50367,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50468,99 +50468,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -50569,99 +50569,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51297,99 +51297,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51398,99 +51398,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -51499,99 +51499,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52227,99 +52227,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52328,99 +52328,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -52429,99 +52429,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54176,99 +54176,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54277,99 +54277,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -54378,99 +54378,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55106,99 +55106,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55207,99 +55207,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -55308,99 +55308,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56036,99 +56036,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56137,99 +56137,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -56238,99 +56238,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56966,99 +56966,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57067,99 +57067,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -57168,99 +57168,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17215E1F-4499-467D-ADDF-6B5BD6B35E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC5AF8-3F0C-40C6-AD9F-A87DA2D65D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E1" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E1" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F1" s="1">
-        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
@@ -12365,7 +12365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC5AF8-3F0C-40C6-AD9F-A87DA2D65D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2664F2F-8B66-40DF-B959-103460C3AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:K1" si="0">1/9</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="D1:K1" si="0">1/9</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2664F2F-8B66-40DF-B959-103460C3AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EBA4D-DF2F-483D-9DD2-4FADCB1E6863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32655" yWindow="-10125" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,42 +4414,42 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:K1" si="0">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" ref="D1:K1" si="1">1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F1" s="1">
-        <f t="shared" si="0"/>
+      <c r="G1" s="1">
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G1" s="1">
-        <f t="shared" si="0"/>
+      <c r="H1" s="1">
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H1" s="1">
-        <f t="shared" si="0"/>
+      <c r="I1" s="1">
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I1" s="1">
-        <f t="shared" si="0"/>
+      <c r="J1" s="1">
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J1" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
       <c r="K1" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
     </row>

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CAD957-FBCF-4629-804E-64895BEEF853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56957E-21FD-4D47-BB99-D5D8C50846A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35055" yWindow="-10800" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37275" yWindow="-10440" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56957E-21FD-4D47-BB99-D5D8C50846A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCAB29-0C4A-4F20-A4B9-D70AD03E6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37275" yWindow="-10440" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32115" yWindow="-10965" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4429,7 +4429,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:K1" si="1">1/9</f>
+        <f t="shared" ref="D1:K1" si="1">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCAB29-0C4A-4F20-A4B9-D70AD03E6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12037FC0-E17E-48DA-845E-760A4278B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32115" yWindow="-10965" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,11 +4414,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>
@@ -4429,7 +4428,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="D1:K1" si="1">1/9</f>
+        <f t="shared" ref="F1:K1" si="1">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12037FC0-E17E-48DA-845E-760A4278B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B66961-2B5A-4043-B8BB-592FC2C700D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34200" yWindow="-8880" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,39 +4417,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
+        <f>1/$B$1</f>
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:K1" si="1">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B66961-2B5A-4043-B8BB-592FC2C700D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802628D9-BF1C-4E09-AA93-D2042B92CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="-8880" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31575" yWindow="-11220" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802628D9-BF1C-4E09-AA93-D2042B92CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D60D001-2777-4CA3-8CDC-961FABE3E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="-11220" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802628D9-BF1C-4E09-AA93-D2042B92CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E4893-A95F-492F-8E1E-5F77511D80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="-11220" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E4893-A95F-492F-8E1E-5F77511D80CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C137B83-D8AA-4323-80C9-22C59C092136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C137B83-D8AA-4323-80C9-22C59C092136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8348CED-5FB9-449D-B28A-7BE6FD030DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8348CED-5FB9-449D-B28A-7BE6FD030DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D7973-94D5-4948-8FA7-4059490E0F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D7973-94D5-4948-8FA7-4059490E0F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4D4B0-380A-4BAC-B166-C28CEBBC9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4D4B0-380A-4BAC-B166-C28CEBBC9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1F30B-0FB2-48D6-8E89-D43D6E3DD368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1F30B-0FB2-48D6-8E89-D43D6E3DD368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB0B30-8E13-4B50-B7E3-55E721FAB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB0B30-8E13-4B50-B7E3-55E721FAB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109A0A4-1AEE-4B59-98CA-C46C24CAC184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109A0A4-1AEE-4B59-98CA-C46C24CAC184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51996E6C-DD76-42A7-9D59-ACC0F8DACCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2025.xlsx
+++ b/data/CS5/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51996E6C-DD76-42A7-9D59-ACC0F8DACCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC903696-8FD8-4AF2-BB04-E26AD5616F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
